--- a/Excel/EnemyHeroConfig.xlsx
+++ b/Excel/EnemyHeroConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE5F437-7C7C-4356-A434-7D9B31D93688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF83C5C-9E98-45BE-9992-E06AF247213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="3790" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>c</t>
   </si>
@@ -60,6 +60,22 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄的星级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄的阶数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +167,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,7 +477,7 @@
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H6" sqref="H6:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -468,7 +487,8 @@
     <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="9" style="2"/>
+    <col min="9" max="9" width="25.90625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9" style="2"/>
     <col min="13" max="13" width="16.81640625" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
@@ -491,12 +511,16 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3"/>
       <c r="N3"/>
     </row>
@@ -513,12 +537,16 @@
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4"/>
       <c r="N4"/>
     </row>
@@ -535,16 +563,20 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="3:14" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C6" s="5">
         <v>1000000001</v>
       </c>
@@ -557,12 +589,17 @@
       <c r="F6" s="5">
         <v>100001</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>1000000002</v>
       </c>
@@ -570,13 +607,17 @@
         <v>100002</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <v>100002</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -584,7 +625,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C8" s="5">
         <v>1000000003</v>
       </c>
@@ -592,13 +633,17 @@
         <v>100003</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>100003</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -606,7 +651,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C9" s="5">
         <v>1000000004</v>
       </c>
@@ -614,13 +659,17 @@
         <v>100004</v>
       </c>
       <c r="E9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
         <v>100004</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -628,7 +677,7 @@
       <c r="M9" s="6"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10" s="5">
         <v>1000000005</v>
       </c>
@@ -636,13 +685,17 @@
         <v>100005</v>
       </c>
       <c r="E10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
         <v>100005</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -650,7 +703,7 @@
       <c r="M10" s="6"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11" s="5">
         <v>1000000006</v>
       </c>
@@ -658,13 +711,17 @@
         <v>100006</v>
       </c>
       <c r="E11" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <v>100006</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -672,7 +729,7 @@
       <c r="M11" s="6"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C12" s="5">
         <v>1000000007</v>
       </c>
@@ -680,13 +737,17 @@
         <v>100007</v>
       </c>
       <c r="E12" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>100007</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -694,7 +755,7 @@
       <c r="M12" s="6"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C13" s="5">
         <v>1000000008</v>
       </c>
@@ -702,13 +763,17 @@
         <v>100008</v>
       </c>
       <c r="E13" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
         <v>100008</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -716,7 +781,7 @@
       <c r="M13" s="6"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C14" s="5">
         <v>1000000009</v>
       </c>
@@ -724,13 +789,17 @@
         <v>100009</v>
       </c>
       <c r="E14" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
         <v>100009</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -738,7 +807,7 @@
       <c r="M14" s="6"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C15" s="5">
         <v>1000000010</v>
       </c>
@@ -746,13 +815,17 @@
         <v>100010</v>
       </c>
       <c r="E15" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
         <v>100010</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -760,7 +833,7 @@
       <c r="M15" s="6"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C16" s="5">
         <v>1000000011</v>
       </c>
@@ -768,13 +841,17 @@
         <v>100011</v>
       </c>
       <c r="E16" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>100011</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -782,7 +859,7 @@
       <c r="M16" s="6"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C17" s="5">
         <v>1000000012</v>
       </c>
@@ -790,13 +867,17 @@
         <v>100012</v>
       </c>
       <c r="E17" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
         <v>100012</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -804,7 +885,7 @@
       <c r="M17" s="6"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C18" s="5">
         <v>1000000013</v>
       </c>
@@ -812,13 +893,17 @@
         <v>100013</v>
       </c>
       <c r="E18" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
         <v>100013</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -826,7 +911,7 @@
       <c r="M18" s="6"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C19" s="5">
         <v>1000000014</v>
       </c>
@@ -834,13 +919,17 @@
         <v>100014</v>
       </c>
       <c r="E19" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <v>100014</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -848,7 +937,7 @@
       <c r="M19" s="6"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C20" s="5">
         <v>1000000015</v>
       </c>
@@ -856,13 +945,17 @@
         <v>100015</v>
       </c>
       <c r="E20" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
         <v>100015</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -870,7 +963,7 @@
       <c r="M20" s="6"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C21" s="5">
         <v>1000000016</v>
       </c>
@@ -878,13 +971,17 @@
         <v>100016</v>
       </c>
       <c r="E21" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
         <v>100016</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -892,7 +989,7 @@
       <c r="M21" s="6"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C22" s="5">
         <v>1000000017</v>
       </c>
@@ -900,13 +997,17 @@
         <v>100017</v>
       </c>
       <c r="E22" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
         <v>100017</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>

--- a/Excel/EnemyHeroConfig.xlsx
+++ b/Excel/EnemyHeroConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF83C5C-9E98-45BE-9992-E06AF247213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="22400"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>c</t>
   </si>
@@ -31,10 +25,34 @@
     <t>英雄名字</t>
   </si>
   <si>
+    <t>英雄等级</t>
+  </si>
+  <si>
+    <t>英雄配置ID</t>
+  </si>
+  <si>
+    <t>英雄的星级</t>
+  </si>
+  <si>
+    <t>英雄的阶数</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>HeroName</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>ConfigId</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>int</t>
@@ -42,48 +60,18 @@
   <si>
     <t>string</t>
   </si>
-  <si>
-    <t>英雄等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄配置ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄的星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄的阶数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +83,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -103,13 +90,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,12 +103,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +257,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,9 +452,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -163,25 +713,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,37 +1062,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H22"/>
+      <selection activeCell="F6" sqref="F6:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.0865384615385" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7307692307692" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6346153846154" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3653846153846" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.0865384615385" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.9038461538462" style="2" customWidth="1"/>
     <col min="10" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="16.81640625" style="2"/>
+    <col min="13" max="13" width="16.8173076923077" style="2"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="14:14">
       <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="3" ht="16.8" spans="3:14">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -506,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -524,24 +1118,24 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="4" ht="16.8" spans="3:14">
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -550,24 +1144,24 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="5" ht="16.8" spans="3:14">
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -576,7 +1170,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="3:14" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="6" customFormat="1" ht="16.8" spans="3:14">
       <c r="C6" s="5">
         <v>1000000001</v>
       </c>
@@ -589,17 +1183,17 @@
       <c r="F6" s="5">
         <v>100001</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="3:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="7" s="1" customFormat="1" ht="16.8" spans="3:14">
       <c r="C7" s="5">
         <v>1000000002</v>
       </c>
@@ -612,20 +1206,20 @@
       <c r="F7" s="5">
         <v>100002</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="8" ht="16.8" spans="3:14">
       <c r="C8" s="5">
         <v>1000000003</v>
       </c>
@@ -638,20 +1232,20 @@
       <c r="F8" s="5">
         <v>100003</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="9" ht="16.8" spans="3:14">
       <c r="C9" s="5">
         <v>1000000004</v>
       </c>
@@ -664,20 +1258,20 @@
       <c r="F9" s="5">
         <v>100004</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="8"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="10" ht="16.8" spans="3:14">
       <c r="C10" s="5">
         <v>1000000005</v>
       </c>
@@ -690,20 +1284,20 @@
       <c r="F10" s="5">
         <v>100005</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="8"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" ht="16.8" spans="3:14">
       <c r="C11" s="5">
         <v>1000000006</v>
       </c>
@@ -716,306 +1310,306 @@
       <c r="F11" s="5">
         <v>100006</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="8"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" ht="16.8" spans="3:14">
       <c r="C12" s="5">
         <v>1000000007</v>
       </c>
       <c r="D12" s="5">
-        <v>100007</v>
+        <v>100013</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <v>100007</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+        <v>100013</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="8"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="13" ht="16.8" spans="3:14">
       <c r="C13" s="5">
         <v>1000000008</v>
       </c>
       <c r="D13" s="5">
-        <v>100008</v>
+        <v>100014</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>100008</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="8"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="14" ht="16.8" spans="3:14">
       <c r="C14" s="5">
         <v>1000000009</v>
       </c>
       <c r="D14" s="5">
-        <v>100009</v>
+        <v>100015</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>100009</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+        <v>100015</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="8"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="15" ht="16.8" spans="3:14">
       <c r="C15" s="5">
         <v>1000000010</v>
       </c>
       <c r="D15" s="5">
-        <v>100010</v>
+        <v>100016</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>100010</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
+        <v>100016</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="8"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="16" ht="16.8" spans="3:14">
       <c r="C16" s="5">
         <v>1000000011</v>
       </c>
       <c r="D16" s="5">
-        <v>100011</v>
+        <v>100017</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>100011</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
+        <v>100017</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="8"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="17" ht="16.8" spans="3:14">
       <c r="C17" s="5">
         <v>1000000012</v>
       </c>
       <c r="D17" s="5">
-        <v>100012</v>
+        <v>100018</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>100012</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
+        <v>100018</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="8"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" ht="16.8" spans="3:14">
       <c r="C18" s="5">
         <v>1000000013</v>
       </c>
       <c r="D18" s="5">
-        <v>100013</v>
+        <v>100019</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>100013</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
+        <v>100019</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="8"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="19" ht="16.8" spans="3:14">
       <c r="C19" s="5">
         <v>1000000014</v>
       </c>
       <c r="D19" s="5">
-        <v>100014</v>
+        <v>100020</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>100014</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+        <v>100020</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="8"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="20" ht="16.8" spans="3:14">
       <c r="C20" s="5">
         <v>1000000015</v>
       </c>
       <c r="D20" s="5">
-        <v>100015</v>
+        <v>100020</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>100015</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+        <v>100020</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="8"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="21" ht="16.8" spans="3:14">
       <c r="C21" s="5">
         <v>1000000016</v>
       </c>
       <c r="D21" s="5">
-        <v>100016</v>
+        <v>100020</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>100016</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
+        <v>100020</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="8"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="22" ht="16.8" spans="3:14">
       <c r="C22" s="5">
         <v>1000000017</v>
       </c>
       <c r="D22" s="5">
-        <v>100017</v>
+        <v>100020</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>100017</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
+        <v>100020</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>0</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="8"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" ht="16.8" spans="3:14">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1023,63 +1617,63 @@
       <c r="H23" s="5"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:8">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:8">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:8">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:4">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:4">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/EnemyHeroConfig.xlsx
+++ b/Excel/EnemyHeroConfig.xlsx
@@ -66,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,21 +96,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,11 +131,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,38 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -177,72 +236,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -265,37 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,139 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,17 +450,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -488,6 +479,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,21 +525,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,169 +543,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,7 +709,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1071,7 +1064,7 @@
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F22"/>
+      <selection activeCell="E6" sqref="E6:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1178,7 +1171,7 @@
         <v>100001</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5">
         <v>100001</v>
@@ -1201,7 +1194,7 @@
         <v>100002</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5">
         <v>100002</v>
@@ -1227,7 +1220,7 @@
         <v>100003</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5">
         <v>100003</v>
@@ -1253,7 +1246,7 @@
         <v>100004</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F9" s="5">
         <v>100004</v>
@@ -1279,7 +1272,7 @@
         <v>100005</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F10" s="5">
         <v>100005</v>
@@ -1305,7 +1298,7 @@
         <v>100006</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F11" s="5">
         <v>100006</v>
@@ -1331,7 +1324,7 @@
         <v>100013</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5">
         <v>100013</v>
@@ -1357,7 +1350,7 @@
         <v>100014</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5">
         <v>100014</v>
@@ -1383,7 +1376,7 @@
         <v>100015</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F14" s="5">
         <v>100015</v>
@@ -1409,7 +1402,7 @@
         <v>100016</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5">
         <v>100016</v>
@@ -1435,7 +1428,7 @@
         <v>100017</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5">
         <v>100017</v>
@@ -1461,7 +1454,7 @@
         <v>100018</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F17" s="5">
         <v>100018</v>
@@ -1487,7 +1480,7 @@
         <v>100019</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5">
         <v>100019</v>
@@ -1513,7 +1506,7 @@
         <v>100020</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5">
         <v>100020</v>
@@ -1539,7 +1532,7 @@
         <v>100020</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F20" s="5">
         <v>100020</v>
@@ -1565,7 +1558,7 @@
         <v>100020</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F21" s="5">
         <v>100020</v>
@@ -1591,7 +1584,7 @@
         <v>100020</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5">
         <v>100020</v>

--- a/Excel/EnemyHeroConfig.xlsx
+++ b/Excel/EnemyHeroConfig.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>c</t>
   </si>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>英雄的阶数</t>
+  </si>
+  <si>
+    <t>对应名称</t>
   </si>
   <si>
     <t>Id</t>
@@ -60,16 +66,19 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>凤凰</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -94,16 +103,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,6 +140,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -123,119 +239,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -252,31 +261,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,151 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,74 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,151 +484,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1073,7 @@
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1080,31 +1089,36 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:14">
+    <row r="2" spans="9:14">
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.8" spans="3:14">
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1113,24 +1127,26 @@
     </row>
     <row r="4" ht="16.8" spans="3:14">
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1139,24 +1155,26 @@
     </row>
     <row r="5" ht="16.8" spans="3:14">
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1603,11 +1621,27 @@
       <c r="N22"/>
     </row>
     <row r="23" ht="16.8" spans="3:14">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="C23" s="5">
+        <v>1000000018</v>
+      </c>
+      <c r="D23" s="5">
+        <v>100021</v>
+      </c>
+      <c r="E23" s="5">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100021</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N23"/>
     </row>
     <row r="24" spans="3:8">

--- a/Excel/EnemyHeroConfig.xlsx
+++ b/Excel/EnemyHeroConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="HeroConfig" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,7 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +111,60 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,24 +179,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,14 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -180,15 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,42 +245,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -261,13 +261,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,169 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,17 +455,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,11 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,160 +552,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="C2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1189,16 +1189,16 @@
         <v>100001</v>
       </c>
       <c r="E6" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" s="5">
         <v>100001</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7"/>
       <c r="M6" s="8"/>
